--- a/biology/Botanique/Parinari_curatellifolia/Parinari_curatellifolia.xlsx
+++ b/biology/Botanique/Parinari_curatellifolia/Parinari_curatellifolia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Parinari curatellifolia  Planch. ex Benth. est une espèce de plantes à fleurs de la famille des Chrysobalanaceae. C'est un arbre tropical d'Afrique, que l'on rencontre dans les savanes et les forêts sèches au sud du Sahara, depuis le  Sénégal jusqu'au Soudan, ainsi qu'au Transvaal en Afrique du Sud[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Parinari curatellifolia  Planch. ex Benth. est une espèce de plantes à fleurs de la famille des Chrysobalanaceae. C'est un arbre tropical d'Afrique, que l'on rencontre dans les savanes et les forêts sèches au sud du Sahara, depuis le  Sénégal jusqu'au Soudan, ainsi qu'au Transvaal en Afrique du Sud.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Liste des sous-espèces et variétés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Tropicos                                           (21 septembre 2017)[4] (Attention liste brute contenant possiblement des synonymes) :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (21 septembre 2017) (Attention liste brute contenant possiblement des synonymes) :
 sous-espèce Parinari curatellifolia subsp. curatellifolia
 sous-espèce Parinari curatellifolia subsp. mobola (Oliv.) R.A. Graham
 variété Parinari curatellifolia var. fruticulosa R.E. Fr.</t>
